--- a/biology/Zoologie/Chincoteague_National_Wildlife_Refuge/Chincoteague_National_Wildlife_Refuge.xlsx
+++ b/biology/Zoologie/Chincoteague_National_Wildlife_Refuge/Chincoteague_National_Wildlife_Refuge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Chincoteague National Wildlife Refuge est une aire protégée américaine située dans le comté d'Accomack, en Virginie, et le comté de Worcester, dans le Maryland. Ce National Wildlife Refuge de 73,52 km2 a été fondé en 1943.
